--- a/data/_combined_datasets.xlsx
+++ b/data/_combined_datasets.xlsx
@@ -1,20 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmchrist\Desktop\ABM\Assignment\ABM-Housing-Pricing\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E844063F-B838-46B9-B675-904EFB09BAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2020_stadsdelen_0.1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="2020_stadsdelen_0.1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'2020_stadsdelen_0.1'!$B$1:$I$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2020_stadsdelen_0.1'!$B$1:$I$8</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,103 +41,85 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t xml:space="preserve">stadsdeel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">houses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">houses_sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">average_house_price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">household_income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">household_disposable_income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">household_expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">satisfaction_housing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">satisfaction_neighbourhood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">want_to_move_out_%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shop_index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crime_index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">built-up_area_%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nature_area_%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centrum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nieuw-West</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zuidoost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zuid</t>
+    <t>stadsdeel</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>houses</t>
+  </si>
+  <si>
+    <t>houses_sold</t>
+  </si>
+  <si>
+    <t>average_house_price</t>
+  </si>
+  <si>
+    <t>household_income</t>
+  </si>
+  <si>
+    <t>household_disposable_income</t>
+  </si>
+  <si>
+    <t>household_expenses</t>
+  </si>
+  <si>
+    <t>satisfaction_housing</t>
+  </si>
+  <si>
+    <t>satisfaction_neighbourhood</t>
+  </si>
+  <si>
+    <t>want_to_move_out_%</t>
+  </si>
+  <si>
+    <t>shop_index</t>
+  </si>
+  <si>
+    <t>crime_index</t>
+  </si>
+  <si>
+    <t>built-up_area_%</t>
+  </si>
+  <si>
+    <t>nature_area_%</t>
+  </si>
+  <si>
+    <t>Centrum</t>
+  </si>
+  <si>
+    <t>Oost</t>
+  </si>
+  <si>
+    <t>Nieuw-West</t>
+  </si>
+  <si>
+    <t>Zuidoost</t>
+  </si>
+  <si>
+    <t>Noord</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>Zuid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+  <fonts count="22" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -138,7 +136,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
@@ -146,7 +144,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -175,7 +173,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="15"/>
       <color rgb="FF007EC5"/>
       <name val="Arial"/>
@@ -183,7 +181,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="13"/>
       <color rgb="FF007EC5"/>
       <name val="Arial"/>
@@ -191,7 +189,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF007EC5"/>
       <name val="Arial"/>
@@ -226,7 +224,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -234,7 +232,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
@@ -242,7 +240,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="10"/>
       <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
@@ -269,6 +267,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="29">
     <fill>
@@ -441,14 +444,14 @@
     </fill>
   </fills>
   <borders count="10">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -463,7 +466,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -478,7 +481,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -487,7 +490,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -496,7 +499,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -505,7 +508,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -514,7 +517,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -529,7 +532,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -540,7 +543,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -556,277 +559,140 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="64">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="15" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="20" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="21" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="22" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="23" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="24" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="25" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="26" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="27" borderId="7" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="28" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="8" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="22" borderId="9" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="45">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="2" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="1" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="9" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="58" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="58" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="45">
+    <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Accent1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Accent2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Accent3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Accent4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Accent5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Accent6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Berekening 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Controlecel 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Gekoppelde cel 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Goed 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Invoer 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Kop 1 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Kop 2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Kop 3 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Kop 4 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Neutraal 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="20% - Accent1 2" xfId="20"/>
-    <cellStyle name="20% - Accent2 2" xfId="21"/>
-    <cellStyle name="20% - Accent3 2" xfId="22"/>
-    <cellStyle name="20% - Accent4 2" xfId="23"/>
-    <cellStyle name="20% - Accent5 2" xfId="24"/>
-    <cellStyle name="20% - Accent6 2" xfId="25"/>
-    <cellStyle name="40% - Accent1 2" xfId="26"/>
-    <cellStyle name="40% - Accent2 2" xfId="27"/>
-    <cellStyle name="40% - Accent3 2" xfId="28"/>
-    <cellStyle name="40% - Accent4 2" xfId="29"/>
-    <cellStyle name="40% - Accent5 2" xfId="30"/>
-    <cellStyle name="40% - Accent6 2" xfId="31"/>
-    <cellStyle name="60% - Accent1 2" xfId="32"/>
-    <cellStyle name="60% - Accent2 2" xfId="33"/>
-    <cellStyle name="60% - Accent3 2" xfId="34"/>
-    <cellStyle name="60% - Accent4 2" xfId="35"/>
-    <cellStyle name="60% - Accent5 2" xfId="36"/>
-    <cellStyle name="60% - Accent6 2" xfId="37"/>
-    <cellStyle name="Accent1 2" xfId="38"/>
-    <cellStyle name="Accent2 2" xfId="39"/>
-    <cellStyle name="Accent3 2" xfId="40"/>
-    <cellStyle name="Accent4 2" xfId="41"/>
-    <cellStyle name="Accent5 2" xfId="42"/>
-    <cellStyle name="Accent6 2" xfId="43"/>
-    <cellStyle name="Berekening 2" xfId="44"/>
-    <cellStyle name="Controlecel 2" xfId="45"/>
-    <cellStyle name="Gekoppelde cel 2" xfId="46"/>
-    <cellStyle name="Goed 2" xfId="47"/>
-    <cellStyle name="Invoer 2" xfId="48"/>
-    <cellStyle name="Kop 1 2" xfId="49"/>
-    <cellStyle name="Kop 2 2" xfId="50"/>
-    <cellStyle name="Kop 3 2" xfId="51"/>
-    <cellStyle name="Kop 4 2" xfId="52"/>
-    <cellStyle name="Neutraal 2" xfId="53"/>
-    <cellStyle name="Notitie 2" xfId="54"/>
-    <cellStyle name="Ongeldig 2" xfId="55"/>
-    <cellStyle name="Standaard 2" xfId="56"/>
-    <cellStyle name="Standaard 3" xfId="57"/>
-    <cellStyle name="Standaard 4" xfId="58"/>
-    <cellStyle name="Standaard 5" xfId="59"/>
-    <cellStyle name="Totaal 2" xfId="60"/>
-    <cellStyle name="Uitvoer 2" xfId="61"/>
-    <cellStyle name="Verklarende tekst 2" xfId="62"/>
-    <cellStyle name="Waarschuwingstekst 2" xfId="63"/>
+    <cellStyle name="Notitie 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Ongeldig 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Standaard 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Standaard 3" xfId="38" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Standaard 4" xfId="39" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Standaard 5" xfId="40" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Totaal 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Uitvoer 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Verklarende tekst 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Waarschuwingstekst 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -885,43 +751,351 @@
       <rgbColor rgb="FFFAFCFE"/>
       <rgbColor rgb="FF3F3F76"/>
       <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:O8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:8"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="19.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="20.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="27.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="20.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="27.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="25.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="18.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.81"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="1" width="10.73"/>
+    <col min="1" max="1" width="11.08984375" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.36328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.90625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.90625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="27.36328125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="25.1796875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.54296875" customWidth="1"/>
+    <col min="13" max="13" width="17.26953125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.08984375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.81640625" customWidth="1"/>
+    <col min="16" max="1024" width="10.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -968,342 +1142,344 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>87310</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>54976</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="2">
         <v>1470</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="2">
         <v>735193</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="1">
         <v>71391</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="1">
         <v>44900</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="1">
         <v>26491</v>
       </c>
-      <c r="I2" s="8" t="n">
+      <c r="I2" s="8">
         <v>0.79</v>
       </c>
-      <c r="J2" s="8" t="n">
+      <c r="J2" s="8">
         <v>0.81</v>
       </c>
-      <c r="K2" s="9" t="n">
-        <v>0.4485</v>
-      </c>
-      <c r="L2" s="10" t="n">
+      <c r="K2" s="9">
+        <v>0.44850000000000001</v>
+      </c>
+      <c r="L2" s="10">
         <v>1</v>
       </c>
-      <c r="M2" s="11" t="n">
-        <v>0.615190100890817</v>
-      </c>
-      <c r="N2" s="12" t="n">
+      <c r="M2" s="11">
+        <f>1-0.615190100890817</f>
+        <v>0.38480989910918295</v>
+      </c>
+      <c r="N2" s="12">
         <v>0.742792495990651</v>
       </c>
-      <c r="O2" s="12" t="n">
+      <c r="O2" s="12">
         <v>0.257207504009349</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>142049</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>72396</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="2">
         <v>1971</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="2">
         <v>567228</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="1">
         <v>73500</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="1">
         <v>42100</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="1">
         <v>31400</v>
       </c>
-      <c r="I3" s="8" t="n">
+      <c r="I3" s="8">
         <v>0.78</v>
       </c>
-      <c r="J3" s="8" t="n">
+      <c r="J3" s="8">
         <v>0.78</v>
       </c>
-      <c r="K3" s="9" t="n">
-        <v>0.5185</v>
-      </c>
-      <c r="L3" s="13" t="n">
-        <v>0.459725792630677</v>
-      </c>
-      <c r="M3" s="11" t="n">
-        <v>0.393692398531564</v>
-      </c>
-      <c r="N3" s="12" t="n">
-        <v>0.432157436975202</v>
-      </c>
-      <c r="O3" s="12" t="n">
-        <v>0.567839294527555</v>
+      <c r="K3" s="9">
+        <v>0.51849999999999996</v>
+      </c>
+      <c r="L3" s="13">
+        <v>0.45972579263067698</v>
+      </c>
+      <c r="M3" s="11">
+        <f>1-0.393692398531564</f>
+        <v>0.60630760146843599</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0.43215743697520198</v>
+      </c>
+      <c r="O3" s="12">
+        <v>0.56783929452755499</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>160124</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>69607</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="2">
         <v>1387</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="2">
         <v>434927</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="1">
         <v>66930</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="1">
         <v>36100</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="1">
         <v>30830</v>
       </c>
-      <c r="I4" s="8" t="n">
+      <c r="I4" s="8">
         <v>0.75</v>
       </c>
-      <c r="J4" s="8" t="n">
+      <c r="J4" s="8">
         <v>0.68</v>
       </c>
-      <c r="K4" s="9" t="n">
-        <v>0.5185</v>
-      </c>
-      <c r="L4" s="13" t="n">
-        <v>0.561268209083119</v>
-      </c>
-      <c r="M4" s="11" t="n">
-        <v>0.606975072523297</v>
-      </c>
-      <c r="N4" s="12" t="n">
-        <v>0.551184519957701</v>
-      </c>
-      <c r="O4" s="12" t="n">
-        <v>0.448818110555196</v>
+      <c r="K4" s="9">
+        <v>0.51849999999999996</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0.56126820908311903</v>
+      </c>
+      <c r="M4" s="11">
+        <f>1-0.606975072523297</f>
+        <v>0.39302492747670303</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0.55118451995770101</v>
+      </c>
+      <c r="O4" s="12">
+        <v>0.44881811055519599</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="1">
         <v>89841</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>42001</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2">
         <v>685</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="2">
         <v>323134</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="1">
         <v>54998</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="1">
         <v>31400</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="1">
         <v>23598</v>
       </c>
-      <c r="I5" s="8" t="n">
+      <c r="I5" s="8">
         <v>0.75</v>
       </c>
-      <c r="J5" s="8" t="n">
+      <c r="J5" s="8">
         <v>0.71</v>
       </c>
-      <c r="K5" s="9" t="n">
-        <v>0.4775</v>
-      </c>
-      <c r="L5" s="10" t="n">
-        <v>0.296058269065981</v>
-      </c>
-      <c r="M5" s="11" t="n">
-        <v>0.960632043745026</v>
-      </c>
-      <c r="N5" s="12" t="n">
-        <v>0.590609398741046</v>
-      </c>
-      <c r="O5" s="12" t="n">
-        <v>0.409386079154909</v>
+      <c r="K5" s="9">
+        <v>0.47749999999999998</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0.29605826906598098</v>
+      </c>
+      <c r="M5" s="11">
+        <f>1-0.960632043745026</f>
+        <v>3.9367956254974024E-2</v>
+      </c>
+      <c r="N5" s="12">
+        <v>0.59060939874104601</v>
+      </c>
+      <c r="O5" s="12">
+        <v>0.40938607915490899</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>99238</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>45981</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="2">
         <v>953</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="2">
         <v>471072</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="1">
         <v>61560</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="1">
         <v>35800</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="1">
         <v>25760</v>
       </c>
-      <c r="I6" s="8" t="n">
+      <c r="I6" s="8">
         <v>0.76</v>
       </c>
-      <c r="J6" s="8" t="n">
+      <c r="J6" s="8">
         <v>0.73</v>
       </c>
-      <c r="K6" s="9" t="n">
+      <c r="K6" s="9">
         <v>0.4335</v>
       </c>
-      <c r="L6" s="13" t="n">
-        <v>0.328191945158526</v>
-      </c>
-      <c r="M6" s="11" t="n">
-        <v>0.546594614022026</v>
-      </c>
-      <c r="N6" s="12" t="n">
-        <v>0.232827028678412</v>
-      </c>
-      <c r="O6" s="12" t="n">
-        <v>0.767172971321588</v>
+      <c r="L6" s="13">
+        <v>0.32819194515852601</v>
+      </c>
+      <c r="M6" s="11">
+        <f>1-0.546594614022026</f>
+        <v>0.45340538597797397</v>
+      </c>
+      <c r="N6" s="12">
+        <v>0.23282702867841201</v>
+      </c>
+      <c r="O6" s="12">
+        <v>0.76717297132158802</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="1">
         <v>147421</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>80359</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="2">
         <v>2799</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="2">
         <v>523489</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="1">
         <v>66063</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="1">
         <v>37500</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="1">
         <v>28563</v>
       </c>
-      <c r="I7" s="8" t="n">
+      <c r="I7" s="8">
         <v>0.76</v>
       </c>
-      <c r="J7" s="8" t="n">
+      <c r="J7" s="8">
         <v>0.77</v>
       </c>
-      <c r="K7" s="9" t="n">
-        <v>0.523</v>
-      </c>
-      <c r="L7" s="10" t="n">
-        <v>0.590831191088261</v>
-      </c>
-      <c r="M7" s="11" t="n">
-        <v>0.554604266680359</v>
-      </c>
-      <c r="N7" s="12" t="n">
-        <v>0.766051118992295</v>
-      </c>
-      <c r="O7" s="12" t="n">
+      <c r="K7" s="9">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0.59083119108826099</v>
+      </c>
+      <c r="M7" s="11">
+        <f>1-0.554604266680359</f>
+        <v>0.445395733319641</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0.76605111899229505</v>
+      </c>
+      <c r="O7" s="12">
         <v>0.233948881007705</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="1">
         <v>146291</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>81860</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="2">
         <v>2758</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="2">
         <v>747390</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="1">
         <v>87710</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="1">
         <v>49800</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="1">
         <v>37910</v>
       </c>
-      <c r="I8" s="8" t="n">
+      <c r="I8" s="8">
         <v>0.77</v>
       </c>
-      <c r="J8" s="8" t="n">
+      <c r="J8" s="8">
         <v>0.81</v>
       </c>
-      <c r="K8" s="9" t="n">
+      <c r="K8" s="9">
         <v>0.4955</v>
       </c>
-      <c r="L8" s="13" t="n">
-        <v>0.77120822622108</v>
-      </c>
-      <c r="M8" s="11" t="n">
-        <v>0.422753061381665</v>
-      </c>
-      <c r="N8" s="12" t="n">
-        <v>0.708646420673606</v>
-      </c>
-      <c r="O8" s="12" t="n">
+      <c r="L8" s="13">
+        <v>0.77120822622107998</v>
+      </c>
+      <c r="M8" s="11">
+        <f>1-0.422753061381665</f>
+        <v>0.57724693861833498</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0.70864642067360595</v>
+      </c>
+      <c r="O8" s="12">
         <v>0.291353579326394</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.590277777777778" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="79" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.78749999999999998" right="0.59027777777777801" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data/_combined_datasets.xlsx
+++ b/data/_combined_datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmchrist\Desktop\ABM\Assignment\ABM-Housing-Pricing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E844063F-B838-46B9-B675-904EFB09BAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F14C42-9B9B-4F48-A452-8915F149854D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1071,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
